--- a/7rmartSuperMarket/src/main/resources/TestData.xlsx
+++ b/7rmartSuperMarket/src/main/resources/TestData.xlsx
@@ -5,30 +5,32 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\FrameWork(Obsqura).zip_expanded\7rmartSuperMarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\git\myMavenProject\7rmartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD69ACDC-0E48-4483-9051-3AB45B165562}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A9D2B-1A43-424B-A81E-88808946FC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
-    <sheet name="MobileSliderPage" sheetId="2" r:id="rId3"/>
-    <sheet name="ManagePages" sheetId="3" r:id="rId4"/>
-    <sheet name="DropDownUserTypeValue" sheetId="4" r:id="rId5"/>
-    <sheet name="AdminUserPage" sheetId="5" r:id="rId6"/>
-    <sheet name="ManageSlider" sheetId="6" r:id="rId7"/>
-    <sheet name="ManageOfferCode" sheetId="8" r:id="rId8"/>
-    <sheet name="ManagerOrderPage" sheetId="7" r:id="rId9"/>
+    <sheet name="ManageDeliveryBoy" sheetId="9" r:id="rId2"/>
+    <sheet name="ManageLocation" sheetId="11" r:id="rId3"/>
+    <sheet name="MobileSliderPage" sheetId="2" r:id="rId4"/>
+    <sheet name="ManagePages" sheetId="3" r:id="rId5"/>
+    <sheet name="DropDownUserTypeValue" sheetId="4" r:id="rId6"/>
+    <sheet name="AdminUserPage" sheetId="5" r:id="rId7"/>
+    <sheet name="ManageSlider" sheetId="6" r:id="rId8"/>
+    <sheet name="ManageOfferCode" sheetId="8" r:id="rId9"/>
+    <sheet name="ManageExpense" sheetId="10" r:id="rId10"/>
+    <sheet name="ManagerOrderPage" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>UserName</t>
   </si>
@@ -115,6 +117,99 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Admin(Admin)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>FruitNew</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>Debit Bank</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>PurchaseId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>SheenaRajan</t>
+  </si>
+  <si>
+    <t>rajansheena6@gmail.com</t>
+  </si>
+  <si>
+    <t>6325869910</t>
+  </si>
+  <si>
+    <t>Skyline</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>DeliveryCharge</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
 </sst>
 </file>
@@ -159,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,6 +263,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -540,26 +639,237 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CAF5F3-A0C2-461E-A59A-F119CBACE31E}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610FC769-BA01-496D-A3CB-2A5B404B3CEC}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEF4B1D-9F6B-44F8-A4BF-A9D266144269}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CAF5F3-A0C2-461E-A59A-F119CBACE31E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{18C071AC-A3C5-44C9-9DCB-9F5AB544D844}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA878FA-96A2-4362-A283-D012147FB3A1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -624,7 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E80E700-52BF-4A80-81CD-65C3B2D6088D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -652,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93AECEF6-95BB-4408-972F-82DFBDA32E08}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -694,7 +1004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE0B891-EB38-4ADC-98B3-54DE19EA7764}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -725,11 +1035,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3535B8-6DF7-4571-A500-C772155D926C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -764,40 +1074,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEF4B1D-9F6B-44F8-A4BF-A9D266144269}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>